--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityProjects\UGF\AAAGameData\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GF_X\AAAGameData\DataTables\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727DB66B-71B9-4745-B8BE-EAD7F2A7E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -45,12 +44,6 @@
     <t>UIGroup</t>
   </si>
   <si>
-    <t>OpenAnimType</t>
-  </si>
-  <si>
-    <t>CloseAnimType</t>
-  </si>
-  <si>
     <t>EscapeClose</t>
   </si>
   <si>
@@ -94,19 +87,6 @@
   </si>
   <si>
     <t>MenuUIForm</t>
-  </si>
-  <si>
-    <t>FadeIn</t>
-  </si>
-  <si>
-    <t>Custom,None,FadeIn,FadeOut,ScaleIn,ScaleOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>FadeOut</t>
   </si>
   <si>
     <t>返回键触发关闭界面</t>
@@ -117,15 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同组被覆盖是否暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LanguagesDialog</t>
-  </si>
-  <si>
-    <t>Custom,None,FadeIn,FadeOut,ScaleIn,ScaleOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RatingDialog</t>
@@ -133,12 +105,16 @@
   </si>
   <si>
     <t>TermsOfServiceDialog</t>
+  </si>
+  <si>
+    <t>同组界面被覆盖时是否隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,9 +219,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,22 +464,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -531,97 +506,73 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -629,25 +580,19 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
@@ -655,25 +600,19 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>4</v>
       </c>
@@ -681,25 +620,19 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -707,25 +640,19 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>6</v>
       </c>
@@ -733,25 +660,19 @@
         <v>999</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>7</v>
       </c>
@@ -759,25 +680,19 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>8</v>
       </c>
@@ -785,25 +700,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>9</v>
       </c>
@@ -811,22 +720,16 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -850,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GF_X\AAAGameData\DataTables\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\OpenSource\GF_X\AAAGameData\DataTables\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7464DC2B-0EF3-40FE-B3A7-730DB496FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -109,12 +110,15 @@
   <si>
     <t>同组界面被覆盖时是否隐藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topbar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,9 +183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,9 +223,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,6 +736,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -740,7 +764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -753,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\OpenSource\GF_X\AAAGameData\DataTables\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenSource\GF_X\AAAGameData\DataTables\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7464DC2B-0EF3-40FE-B3A7-730DB496FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -113,12 +112,72 @@
   </si>
   <si>
     <t>Topbar</t>
+  </si>
+  <si>
+    <t>主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部资源栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用提示对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐司提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示(顶层)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框(中层)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面(顶层)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示顺序,相对于Group,每个Group间隔100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,9 +282,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -468,15 +527,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
@@ -543,6 +605,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
@@ -554,180 +619,179 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>999</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -738,21 +802,79 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17">
         <v>10</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="b">
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -764,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -777,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -41,9 +41,6 @@
     <t>PauseCoveredUI</t>
   </si>
   <si>
-    <t>UIGroup</t>
-  </si>
-  <si>
     <t>EscapeClose</t>
   </si>
   <si>
@@ -65,24 +62,15 @@
     <t>GameUIForm</t>
   </si>
   <si>
-    <t>UIForm</t>
-  </si>
-  <si>
     <t>SettingDialog</t>
   </si>
   <si>
-    <t>Dialog</t>
-  </si>
-  <si>
     <t>CommonDialog</t>
   </si>
   <si>
     <t>ToastTips</t>
   </si>
   <si>
-    <t>Tips</t>
-  </si>
-  <si>
     <t>GameOverUIForm</t>
   </si>
   <si>
@@ -93,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LanguagesDialog</t>
   </si>
   <si>
@@ -171,6 +155,31 @@
   </si>
   <si>
     <t>显示顺序,相对于Group,每个Group间隔100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIGroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI组Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +540,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,6 +550,7 @@
     <col min="4" max="4" width="40.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,10 +579,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -580,22 +590,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -603,27 +613,27 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -634,19 +644,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -657,19 +667,19 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -680,19 +690,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>14</v>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -703,19 +713,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
+      <c r="G9">
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -723,10 +733,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
@@ -736,19 +746,19 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
+      <c r="G11">
+        <v>2</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -759,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
+      <c r="G12">
+        <v>2</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -782,19 +792,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
-        <v>16</v>
+      <c r="G13">
+        <v>2</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -805,19 +815,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
-        <v>16</v>
+      <c r="G14">
+        <v>2</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -828,19 +838,19 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>16</v>
+      <c r="G15">
+        <v>2</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -848,10 +858,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -860,19 +870,19 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>19</v>
+      <c r="G17">
+        <v>3</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
